--- a/Kbo_Stats/Team/Team_2011.xlsx
+++ b/Kbo_Stats/Team/Team_2011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d0yxn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d0yxn\Desktop\Develop\R Projects\Kbo-RealWAR\Kbo_Stats\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6E13D8-9656-40C9-B0EB-4D44C261EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5F6B56-DD38-4738-B176-2E9CE1FCA969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="4344" windowWidth="13212" windowHeight="12072" xr2:uid="{31CBC726-F895-4C78-9237-9F7A24589250}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{31CBC726-F895-4C78-9237-9F7A24589250}"/>
   </bookViews>
   <sheets>
     <sheet name="2010년" sheetId="2" r:id="rId1"/>
@@ -93,7 +93,8 @@
     <t>한화 이글스</t>
   </si>
   <si>
-    <t>넥센 히어로즈</t>
+    <t>키움 히어로즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,11 +140,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97C90D9-545C-4926-99DF-F2A3E54928ED}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -539,7 +539,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -565,7 +565,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
@@ -591,7 +591,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
@@ -617,7 +617,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
@@ -643,7 +643,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
@@ -669,7 +669,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
@@ -695,7 +695,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
@@ -721,7 +721,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
